--- a/data/unchecked/manual_collect/china/xizang/xizangCaseStatistics_20200218.xlsx
+++ b/data/unchecked/manual_collect/china/xizang/xizangCaseStatistics_20200218.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200218\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D6FB3-9B56-4CAD-A903-84A7457E5E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E85369-F80D-4C00-BC30-33A07D18D904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9265" uniqueCount="3315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9235" uniqueCount="3303">
   <si>
     <t>统计级别</t>
   </si>
@@ -10165,33 +10165,6 @@
   <si>
     <t>黔东南苗族侗族自治州</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从1开始累计</t>
-  </si>
-  <si>
-    <t>格式为“YYYY/MM/DD HH:MM”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写，不确定的地区写“地区待确认”</t>
-  </si>
-  <si>
-    <t>参照规范文件填写</t>
-  </si>
-  <si>
-    <t>不能填0</t>
-  </si>
-  <si>
-    <t>所有内容，包括标题</t>
-  </si>
-  <si>
-    <t>值为“手动”、“自动”</t>
-  </si>
-  <si>
-    <t>值为“未核查”、“已核查”</t>
-  </si>
-  <si>
-    <t>值为“核查通过”、“核查未通过”</t>
   </si>
   <si>
     <t>序号</t>
@@ -10297,30 +10270,6 @@
     <rPh sb="0" eb="1">
       <t>zhong'guo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能填0，正数核增，负数核减</t>
-    <rPh sb="0" eb="1">
-      <t>bu'neng'tian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng'shu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>he'zeng</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'shu'he'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照规范文件填写，包含直辖市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为“国家级”、“省级”、“城市级”、“区县级”</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10853,10 +10802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10900,365 +10849,263 @@
         <v>3251</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>3252</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3252</v>
-      </c>
-      <c r="E1" s="16"/>
+        <v>3253</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3254</v>
+      </c>
       <c r="F1" s="16" t="s">
-        <v>3295</v>
+        <v>11</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>3253</v>
+        <v>1</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>3254</v>
+        <v>2</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>3255</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>3255</v>
+        <v>3260</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>3255</v>
+        <v>3261</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>3255</v>
+        <v>3262</v>
       </c>
       <c r="Q1" s="16" t="s">
+        <v>3263</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>3264</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>3265</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>3296</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>3266</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>3267</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>3268</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>3269</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>3270</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>3271</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>3272</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>3273</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>3274</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>3275</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>3276</v>
+      </c>
+      <c r="AG1" s="16" t="s">
+        <v>3277</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>3278</v>
+      </c>
+      <c r="AI1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="16" t="s">
+        <v>3279</v>
+      </c>
+      <c r="AK1" s="16" t="s">
+        <v>3280</v>
+      </c>
+      <c r="AL1" s="16" t="s">
+        <v>3281</v>
+      </c>
+      <c r="AM1" s="16" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AN1" s="16" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="313.5">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43879</v>
+      </c>
+      <c r="D2" s="14">
+        <v>43880</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
         <v>3294</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>3294</v>
-      </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>3256</v>
-      </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16" t="s">
-        <v>3258</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>3252</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>3257</v>
-      </c>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
-        <v>3259</v>
-      </c>
-      <c r="AN1" s="16"/>
-    </row>
-    <row r="2" spans="1:40" s="18" customFormat="1" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>3260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>3261</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>3262</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>3263</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="T2" s="15">
+        <v>43880.416666666664</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>3298</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="13" t="s">
+        <v>3300</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+    </row>
+    <row r="3" spans="1:40" ht="313.5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C3" s="15">
+        <v>43879</v>
+      </c>
+      <c r="D3" s="20">
+        <v>43880</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3284</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="13">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>3265</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>3266</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>3267</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>3268</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>3269</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>3270</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>3271</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>3272</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>3273</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>3274</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>3308</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>3275</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>3276</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>3277</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>3278</v>
-      </c>
-      <c r="Z2" s="16" t="s">
-        <v>3279</v>
-      </c>
-      <c r="AA2" s="16" t="s">
-        <v>3280</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>3281</v>
-      </c>
-      <c r="AC2" s="16" t="s">
-        <v>3282</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>3283</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>3284</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>3285</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>3286</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>3287</v>
-      </c>
-      <c r="AI2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="16" t="s">
-        <v>3288</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>3289</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>3290</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>3291</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="313.5">
-      <c r="A3" s="12">
+      <c r="O3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>3304</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43879</v>
-      </c>
-      <c r="D3" s="14">
-        <v>43880</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3293</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
-        <v>1</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
       <c r="S3" s="13" t="s">
-        <v>3306</v>
+        <v>3295</v>
       </c>
       <c r="T3" s="15">
         <v>43880.416666666664</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>3309</v>
+        <v>3297</v>
       </c>
       <c r="V3" s="22" t="s">
-        <v>3310</v>
-      </c>
-      <c r="W3" s="15"/>
-      <c r="Z3" s="15"/>
+        <v>3299</v>
+      </c>
       <c r="AA3" s="13" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>3314</v>
-      </c>
-      <c r="AD3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-    </row>
-    <row r="4" spans="1:40" ht="313.5">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>3305</v>
-      </c>
-      <c r="C4" s="15">
-        <v>43879</v>
-      </c>
-      <c r="D4" s="20">
-        <v>43880</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>3293</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13">
-        <v>1</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>3307</v>
-      </c>
-      <c r="T4" s="15">
-        <v>43880.416666666664</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>3309</v>
-      </c>
-      <c r="V4" s="22" t="s">
-        <v>3311</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>3312</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>3313</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>3314</v>
+        <v>3302</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK1048576 AE3:AE1048576 AA3:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK1048576 AE2:AE1048576 AA2:AA1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM1048576 AG3:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>INDIRECT($F3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>INDIRECT($G3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V3" r:id="rId1" xr:uid="{A89F7578-7088-4C6C-AAD0-98CDA307AD39}"/>
-    <hyperlink ref="V4" r:id="rId2" xr:uid="{BE1533DA-0DE4-4B70-986C-ABB63674D911}"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{A89F7578-7088-4C6C-AAD0-98CDA307AD39}"/>
+    <hyperlink ref="V3" r:id="rId2" xr:uid="{BE1533DA-0DE4-4B70-986C-ABB63674D911}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -11269,7 +11116,7 @@
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11306,7 +11153,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3303</v>
+        <v>3291</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -11424,7 +11271,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3302</v>
+        <v>3290</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>412</v>
@@ -12101,7 +11948,7 @@
         <v>212</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>3297</v>
+        <v>3285</v>
       </c>
       <c r="AJ7" s="2" t="s">
         <v>213</v>
@@ -12219,7 +12066,7 @@
         <v>240</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>241</v>
@@ -12325,7 +12172,7 @@
         <v>264</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>265</v>
@@ -12446,7 +12293,7 @@
         <v>292</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ10" s="2" t="s">
         <v>293</v>
@@ -12458,7 +12305,7 @@
         <v>3216</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AN10" s="1" t="s">
         <v>3243</v>
@@ -12495,7 +12342,7 @@
         <v>299</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>300</v>
@@ -12513,7 +12360,7 @@
         <v>303</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>304</v>
@@ -12546,7 +12393,7 @@
         <v>312</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>313</v>
@@ -12650,7 +12497,7 @@
         <v>336</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>337</v>
@@ -12687,10 +12534,10 @@
         <v>449</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>344</v>
@@ -12708,13 +12555,13 @@
         <v>347</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>348</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>349</v>
@@ -12781,7 +12628,7 @@
         <v>450</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>362</v>
@@ -12866,13 +12713,13 @@
         <v>379</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>1129</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>380</v>
@@ -12942,7 +12789,7 @@
         <v>452</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>1130</v>
@@ -12960,13 +12807,13 @@
         <v>396</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>397</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>398</v>
@@ -12981,7 +12828,7 @@
         <v>400</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ16" s="2" t="s">
         <v>391</v>
@@ -12993,7 +12840,7 @@
         <v>3222</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -13068,19 +12915,19 @@
         <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>415</v>
@@ -13101,7 +12948,7 @@
         <v>419</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ18" s="2" t="s">
         <v>413</v>
@@ -13131,7 +12978,7 @@
         <v>423</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>424</v>
@@ -13170,7 +13017,7 @@
       </c>
       <c r="F20" s="2"/>
       <c r="U20" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>430</v>
@@ -13191,7 +13038,7 @@
         <v>429</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AN20" s="1"/>
     </row>
@@ -13212,7 +13059,7 @@
         <v>436</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>2368</v>
@@ -13254,7 +13101,7 @@
         <v>438</v>
       </c>
       <c r="AK22" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AN22" s="1"/>
     </row>
@@ -13272,13 +13119,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>2370</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AJ23" s="2" t="s">
         <v>442</v>
@@ -13351,7 +13198,7 @@
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
@@ -13663,7 +13510,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
       <c r="AA40" s="19" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AN40" s="1"/>
     </row>
@@ -13681,7 +13528,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
       <c r="AA41" s="19" t="s">
-        <v>3300</v>
+        <v>3288</v>
       </c>
       <c r="AN41" s="1"/>
     </row>
@@ -13699,7 +13546,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
       <c r="AA42" s="19" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
       <c r="AN42" s="1"/>
     </row>
@@ -13717,7 +13564,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="AA43" s="2" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AN43" s="1"/>
     </row>
@@ -55094,7 +54941,7 @@
         <v>38</v>
       </c>
       <c r="B2744" s="2" t="s">
-        <v>3297</v>
+        <v>3285</v>
       </c>
       <c r="C2744" s="2"/>
       <c r="D2744" s="2"/>
